--- a/TTT/database schema.xlsx
+++ b/TTT/database schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\git\vinhill.github.io\TTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113A6897-5A15-4551-B33B-41D7E5351730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8813361A-8C9B-4AA0-8874-A03D671E8845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{999ED5BF-1C97-4366-969E-3A684A32F4E0}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>match</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
     <t>Assassin</t>
   </si>
   <si>
@@ -137,12 +134,6 @@
     <t>GhastM4n</t>
   </si>
   <si>
-    <t>assassin</t>
-  </si>
-  <si>
-    <t>mercenary</t>
-  </si>
-  <si>
     <t>01:32.62</t>
   </si>
   <si>
@@ -153,6 +144,15 @@
   </si>
   <si>
     <t>01:30.69</t>
+  </si>
+  <si>
+    <t>vktrole</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>Mercenary</t>
   </si>
 </sst>
 </file>
@@ -160,7 +160,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -422,15 +422,6 @@
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -439,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -454,6 +445,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -556,41 +556,10 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -607,46 +576,10 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
       </border>
     </dxf>
     <dxf>
@@ -711,16 +644,52 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -738,6 +707,37 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -809,10 +809,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC29E10A-9C08-4A05-9086-C9A760B6125F}" name="Tabelle2" displayName="Tabelle2" ref="H3:I5" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC29E10A-9C08-4A05-9086-C9A760B6125F}" name="Tabelle2" displayName="Tabelle2" ref="H3:I5" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="H3:I5" xr:uid="{454A1DA6-4CBA-4EE8-9389-936CF1CDD9C1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{239B428F-5914-4616-BB28-ACE39A22434A}" name=" " dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{239B428F-5914-4616-BB28-ACE39A22434A}" name=" " dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{907C80F7-F928-48C1-B45D-8B7F2BD81756}" name="name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -833,12 +833,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{822FCC4F-55FE-41D3-B688-A3BC9AB95087}" name="Tabelle4" displayName="Tabelle4" ref="G8:I10" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{822FCC4F-55FE-41D3-B688-A3BC9AB95087}" name="Tabelle4" displayName="Tabelle4" ref="G8:I10" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="G8:I10" xr:uid="{F52E8E40-021E-4471-BC10-A9FF1FC8BA38}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5A1BBBC7-2810-44CB-B915-737D559B2C6D}" name=" " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{75A0585B-E744-4BCE-9B14-593A7F63D81D}" name="role"/>
-    <tableColumn id="3" xr3:uid="{0C542851-5D2F-4808-AFF8-3C2F0C30C757}" name="group"/>
+    <tableColumn id="3" xr3:uid="{0C542851-5D2F-4808-AFF8-3C2F0C30C757}" name="team"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -853,7 +853,7 @@
     <tableColumn id="3" xr3:uid="{1F3F8CE0-77E8-449C-85EA-DFB6C4FC4937}" name="attacker"/>
     <tableColumn id="4" xr3:uid="{7A6DF6C9-10C2-4CB8-A498-83737D30FD4B}" name="victim"/>
     <tableColumn id="5" xr3:uid="{664DF83E-1949-4D59-92CB-749EE758FC51}" name="atkrole"/>
-    <tableColumn id="6" xr3:uid="{7FA1D689-94F5-462A-9EEE-89397321EC4C}" name="vktrol"/>
+    <tableColumn id="6" xr3:uid="{7FA1D689-94F5-462A-9EEE-89397321EC4C}" name="vktrole"/>
     <tableColumn id="7" xr3:uid="{6A5B3ED8-A41F-46F2-9BFB-DB1F20464E8A}" name="time"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1180,7 +1180,7 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I20"/>
+      <selection activeCell="F20" sqref="F20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,58 +1197,58 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="H2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1256,280 +1256,280 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>44342</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="G7" s="2" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="G7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>24</v>
+      <c r="I8" s="24" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="15">
         <v>1</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>1</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
+      <c r="B17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>38</v>
+      <c r="I18" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="9">
         <v>1</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="12" t="s">
+      <c r="F20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="25">
+      <c r="H20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="22">
         <v>40</v>
       </c>
     </row>

--- a/TTT/database schema.xlsx
+++ b/TTT/database schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\git\vinhill.github.io\TTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8813361A-8C9B-4AA0-8874-A03D671E8845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F3BF24-5031-4AE0-AF61-13F9A18909C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{999ED5BF-1C97-4366-969E-3A684A32F4E0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>mid</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Mercenary</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>#843001</t>
   </si>
 </sst>
 </file>
@@ -213,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -326,19 +332,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -354,19 +347,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
@@ -393,33 +373,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -434,17 +392,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,6 +408,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -506,18 +466,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -833,12 +781,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{822FCC4F-55FE-41D3-B688-A3BC9AB95087}" name="Tabelle4" displayName="Tabelle4" ref="G8:I10" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="G8:I10" xr:uid="{F52E8E40-021E-4471-BC10-A9FF1FC8BA38}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5A1BBBC7-2810-44CB-B915-737D559B2C6D}" name=" " dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{822FCC4F-55FE-41D3-B688-A3BC9AB95087}" name="Tabelle4" displayName="Tabelle4" ref="G8:J10" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="G8:J10" xr:uid="{F52E8E40-021E-4471-BC10-A9FF1FC8BA38}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5A1BBBC7-2810-44CB-B915-737D559B2C6D}" name=" " dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{75A0585B-E744-4BCE-9B14-593A7F63D81D}" name="role"/>
     <tableColumn id="3" xr3:uid="{0C542851-5D2F-4808-AFF8-3C2F0C30C757}" name="team"/>
+    <tableColumn id="4" xr3:uid="{8B4D4879-D6B4-439F-B598-56E784F06DFD}" name="colour"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -848,7 +797,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{357D6CAA-DF33-46C1-8889-58556704D715}" name="Tabelle5" displayName="Tabelle5" ref="B13:H15" totalsRowShown="0">
   <autoFilter ref="B13:H15" xr:uid="{32C5A8BE-07D8-4186-A1ED-263E5296B241}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0CE5F855-0B92-46E6-921D-AB0B2AC4DB13}" name=" " dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0CE5F855-0B92-46E6-921D-AB0B2AC4DB13}" name=" " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A3F198A1-4906-4DB2-A4FC-D49EAEF17788}" name="mid"/>
     <tableColumn id="3" xr3:uid="{1F3F8CE0-77E8-449C-85EA-DFB6C4FC4937}" name="attacker"/>
     <tableColumn id="4" xr3:uid="{7A6DF6C9-10C2-4CB8-A498-83737D30FD4B}" name="victim"/>
@@ -864,7 +813,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2FF55995-BED1-4ADB-8024-4F3E431A361D}" name="Tabelle57" displayName="Tabelle57" ref="B18:I20" totalsRowShown="0">
   <autoFilter ref="B18:I20" xr:uid="{401E65C2-71AC-4B06-B98F-F12946593E95}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A71BEE10-E42F-432F-981C-A4CE4BA19270}" name=" " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A71BEE10-E42F-432F-981C-A4CE4BA19270}" name=" " dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0418B8D0-A27E-45B4-95A3-7A28A7873426}" name="mid"/>
     <tableColumn id="3" xr3:uid="{57C7490B-1122-431F-83F9-91FE827D5B21}" name="attacker"/>
     <tableColumn id="4" xr3:uid="{3C2AB111-3F7D-4D50-9026-C3030824B528}" name="victim"/>
@@ -1177,10 +1126,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I20"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:G20"/>
+      <selection activeCell="B2" sqref="B2:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,23 +1142,24 @@
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="H2" s="25" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="H2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1225,14 +1175,14 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1248,14 +1198,14 @@
       <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1271,28 +1221,29 @@
       <c r="F5" s="10">
         <v>44342</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="G7" s="25" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="G7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
@@ -1305,17 +1256,20 @@
       <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="24" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>38</v>
       </c>
+      <c r="J8" s="28" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>4</v>
       </c>
@@ -1328,17 +1282,20 @@
       <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="25" t="s">
         <v>6</v>
       </c>
+      <c r="J9" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>5</v>
       </c>
@@ -1348,32 +1305,35 @@
       <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="29" t="s">
         <v>10</v>
       </c>
+      <c r="J10" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
@@ -1396,7 +1356,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
@@ -1419,7 +1379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>5</v>
       </c>
@@ -1438,22 +1398,22 @@
       <c r="G15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -1529,7 +1489,7 @@
       <c r="H20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="20">
         <v>40</v>
       </c>
     </row>
@@ -1543,7 +1503,7 @@
     <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
   <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
